--- a/data/financial_statements/soci/CVS.xlsx
+++ b/data/financial_statements/soci/CVS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,132 +610,132 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>81269000000</v>
+        <v>81159000000</v>
       </c>
       <c r="C2">
         <v>80636000000</v>
@@ -633,10 +744,10 @@
         <v>76826000000</v>
       </c>
       <c r="E2">
-        <v>76466000000</v>
+        <v>76604000000</v>
       </c>
       <c r="F2">
-        <v>73816000000</v>
+        <v>73794000000</v>
       </c>
       <c r="G2">
         <v>72616000000</v>
@@ -742,11 +853,11 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.101</v>
+        <v>0.0998</v>
       </c>
       <c r="C3">
         <v>0.1104</v>
@@ -755,10 +866,10 @@
         <v>0.1119</v>
       </c>
       <c r="E3">
-        <v>0.0994</v>
+        <v>0.1014</v>
       </c>
       <c r="F3">
-        <v>0.1008</v>
+        <v>0.1005</v>
       </c>
       <c r="G3">
         <v>0.1113</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>67784000000</v>
+        <v>50365000000</v>
       </c>
       <c r="C4">
-        <v>66896000000</v>
+        <v>49290000000</v>
       </c>
       <c r="D4">
-        <v>63460000000</v>
+        <v>45509000000</v>
       </c>
       <c r="E4">
-        <v>62952000000</v>
+        <v>46378000000</v>
       </c>
       <c r="F4">
-        <v>61092000000</v>
+        <v>45011000000</v>
       </c>
       <c r="G4">
         <v>43520000000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>13485000000</v>
+        <v>30794000000</v>
       </c>
       <c r="C5">
-        <v>13740000000</v>
+        <v>31346000000</v>
       </c>
       <c r="D5">
-        <v>13366000000</v>
+        <v>31317000000</v>
       </c>
       <c r="E5">
-        <v>13514000000</v>
+        <v>30226000000</v>
       </c>
       <c r="F5">
-        <v>12724000000</v>
+        <v>28783000000</v>
       </c>
       <c r="G5">
         <v>29096000000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F6">
         <v>9190000000</v>
@@ -1137,8 +1248,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>-3931000000</v>
@@ -1259,8 +1370,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>564000000</v>
@@ -1300,8 +1411,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>566000000</v>
@@ -1422,23 +1533,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>7629000000</v>
+        <v>-525000000</v>
       </c>
       <c r="C10">
-        <v>43000000</v>
+        <v>-540000000</v>
       </c>
       <c r="D10">
-        <v>83000000</v>
+        <v>-544000000</v>
       </c>
       <c r="E10">
-        <v>1649000000</v>
+        <v>-659000000</v>
       </c>
       <c r="F10">
-        <v>821000000</v>
+        <v>-916000000</v>
       </c>
       <c r="G10">
         <v>-591000000</v>
@@ -1544,8 +1655,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>-4456000000</v>
@@ -1666,8 +1777,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>-1047000000</v>
@@ -1788,8 +1899,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>-3409000000</v>
@@ -1910,8 +2021,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F14">
         <v>-22000000</v>
@@ -1921,8 +2032,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>7000000</v>
@@ -1992,8 +2103,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>-3416000000</v>
@@ -2114,23 +2225,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>-2.6</v>
       </c>
       <c r="C17">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="D17">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="E17">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F17">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G17">
         <v>2.11</v>
@@ -2236,8 +2347,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>-2.6</v>
@@ -2358,8 +2469,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1315000000</v>
@@ -2371,7 +2482,7 @@
         <v>1312000000</v>
       </c>
       <c r="E19">
-        <v>1322000000</v>
+        <v>1319000000</v>
       </c>
       <c r="F19">
         <v>1321000000</v>
@@ -2480,8 +2591,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>1315000000</v>
@@ -2493,7 +2604,7 @@
         <v>1328000000</v>
       </c>
       <c r="E20">
-        <v>1336000000</v>
+        <v>1329000000</v>
       </c>
       <c r="F20">
         <v>1329000000</v>
@@ -2602,23 +2713,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.1659</v>
+        <v>0.3794</v>
       </c>
       <c r="C21">
-        <v>0.1704</v>
+        <v>0.3887</v>
       </c>
       <c r="D21">
-        <v>0.174</v>
+        <v>0.4076</v>
       </c>
       <c r="E21">
-        <v>0.1767</v>
+        <v>0.3946</v>
       </c>
       <c r="F21">
-        <v>0.1724</v>
+        <v>0.39</v>
       </c>
       <c r="G21">
         <v>0.4007</v>
@@ -2724,8 +2835,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>-0.0484</v>
@@ -2737,7 +2848,7 @@
         <v>0.0454</v>
       </c>
       <c r="E22">
-        <v>0.0292</v>
+        <v>0.0291</v>
       </c>
       <c r="F22">
         <v>0.0415</v>
@@ -2846,11 +2957,11 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>-0.0548</v>
+        <v>-0.0549</v>
       </c>
       <c r="C23">
         <v>0.05</v>
@@ -2968,11 +3079,11 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>-0.042</v>
+        <v>-0.0421</v>
       </c>
       <c r="C24">
         <v>0.0366</v>
@@ -2981,10 +3092,10 @@
         <v>0.0301</v>
       </c>
       <c r="E24">
-        <v>0.0171</v>
+        <v>0.017</v>
       </c>
       <c r="F24">
-        <v>0.0216</v>
+        <v>0.0217</v>
       </c>
       <c r="G24">
         <v>0.0383</v>
@@ -3090,23 +3201,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>4935000000</v>
+        <v>-2875000000</v>
       </c>
       <c r="C25">
         <v>5656000000</v>
       </c>
       <c r="D25">
-        <v>4586000000</v>
+        <v>4545000000</v>
       </c>
       <c r="E25">
-        <v>4595000000</v>
+        <v>3344000000</v>
       </c>
       <c r="F25">
-        <v>4668000000</v>
+        <v>4626000000</v>
       </c>
       <c r="G25">
         <v>5463000000</v>
@@ -3212,8 +3323,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>-3931000000</v>
@@ -3334,8 +3445,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>-3409000000</v>
@@ -3456,8 +3567,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I28">
         <v>-9000000</v>
@@ -3518,8 +3629,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>-3409000000</v>
@@ -3640,8 +3751,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>-2.5924</v>
@@ -3762,8 +3873,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>-2.5924</v>
@@ -3884,8 +3995,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="I32">
         <v>-0.01</v>
@@ -3934,8 +4045,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I33">
         <v>-0.01</v>
@@ -3984,8 +4095,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-2.5924</v>
@@ -4106,8 +4217,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>-2.5924</v>
@@ -4228,8 +4339,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1315000000</v>
@@ -4350,23 +4461,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.0607</v>
+        <v>-0.0354</v>
       </c>
       <c r="C37">
         <v>0.0701</v>
       </c>
       <c r="D37">
-        <v>0.0597</v>
+        <v>0.0592</v>
       </c>
       <c r="E37">
-        <v>0.0601</v>
+        <v>0.0437</v>
       </c>
       <c r="F37">
-        <v>0.06320000000000001</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="G37">
         <v>0.0752</v>
@@ -4472,11 +4583,11 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.1123</v>
+        <v>0.1124</v>
       </c>
       <c r="C38">
         <v>0.0675</v>
@@ -4485,7 +4596,7 @@
         <v>0.0464</v>
       </c>
       <c r="E38">
-        <v>0.0524</v>
+        <v>0.0523</v>
       </c>
       <c r="F38">
         <v>0.07480000000000001</v>
